--- a/lib/option_sets/unit+dimension.xlsx
+++ b/lib/option_sets/unit+dimension.xlsx
@@ -5,20 +5,20 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Dropbox\FlexUp\Shared\Bubble MVP\Options Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabri\Repos\flexup\flexup-nuxt-mvp\lib\option_sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9AE52F2-8DA9-4255-9D1C-C36E7D9E2E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{135848D8-0AA4-4C33-8C2A-1481CF5158F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="unit" sheetId="3" r:id="rId1"/>
+    <sheet name="unit+dimension" sheetId="3" r:id="rId1"/>
     <sheet name="units long list" sheetId="1" r:id="rId2"/>
     <sheet name="dimension" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unit!$A$1:$F$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'unit+dimension'!$A$1:$F$51</definedName>
     <definedName name="dimension">dimension!$B$1:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -1063,7 +1063,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
